--- a/data/microservice-recruit/pf-consumer_structure.xlsx
+++ b/data/microservice-recruit/pf-consumer_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="225">
   <si>
     <t>Class Name</t>
   </si>
@@ -468,40 +468,43 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>pushClient</t>
+  </si>
+  <si>
+    <t>userClient</t>
+  </si>
+  <si>
     <t>resumeClient</t>
   </si>
   <si>
-    <t>pushClient</t>
-  </si>
-  <si>
-    <t>userClient</t>
-  </si>
-  <si>
     <t>recruitClient</t>
   </si>
   <si>
+    <t>messageClient</t>
+  </si>
+  <si>
+    <t>outsideClient</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>messageClient</t>
-  </si>
-  <si>
-    <t>outsideClient</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>msg</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>content</t>
   </si>
   <si>
     <t>title</t>
@@ -510,67 +513,64 @@
     <t>email</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>hrId</t>
   </si>
   <si>
     <t>userId</t>
   </si>
   <si>
+    <t>recruitId</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>recruitId</t>
+    <t>toId</t>
+  </si>
+  <si>
+    <t>fromId</t>
   </si>
   <si>
     <t>readState</t>
   </si>
   <si>
-    <t>toId</t>
-  </si>
-  <si>
-    <t>fromId</t>
+    <t>RECEIVE_RESUME</t>
+  </si>
+  <si>
+    <t>HANDLE_RESUME</t>
   </si>
   <si>
     <t>SEND_RESUME</t>
   </si>
   <si>
-    <t>RECEIVE_RESUME</t>
-  </si>
-  <si>
-    <t>HANDLE_RESUME</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
+    <t>intentionJob</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
     <t>nickname</t>
   </si>
   <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
     <t>intentionCompany</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>intentionJob</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>introduce</t>
   </si>
   <si>
     <t>sex</t>
@@ -5041,7 +5041,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5514,10 +5514,10 @@
         <v>62</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44">
@@ -5525,7 +5525,7 @@
         <v>62</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>205</v>
@@ -5536,7 +5536,7 @@
         <v>62</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>205</v>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>205</v>
@@ -5558,7 +5558,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>205</v>
@@ -5569,10 +5569,10 @@
         <v>70</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49">
@@ -5580,10 +5580,10 @@
         <v>70</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50">
@@ -5591,10 +5591,10 @@
         <v>70</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51">
@@ -5602,10 +5602,10 @@
         <v>70</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52">
@@ -5613,10 +5613,10 @@
         <v>70</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53">
@@ -5624,32 +5624,32 @@
         <v>70</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56">
@@ -5657,18 +5657,18 @@
         <v>78</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>205</v>
@@ -5679,7 +5679,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>205</v>
@@ -5690,7 +5690,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>205</v>
@@ -5701,7 +5701,7 @@
         <v>81</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>205</v>
@@ -5712,7 +5712,7 @@
         <v>81</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>205</v>
@@ -5723,7 +5723,7 @@
         <v>81</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>205</v>
@@ -5734,7 +5734,7 @@
         <v>81</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>205</v>
@@ -5745,7 +5745,7 @@
         <v>81</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>205</v>
@@ -5756,10 +5756,10 @@
         <v>81</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66">
@@ -5767,10 +5767,10 @@
         <v>81</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67">
@@ -5778,10 +5778,10 @@
         <v>81</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68">
@@ -5789,10 +5789,10 @@
         <v>81</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69">
@@ -5800,10 +5800,10 @@
         <v>81</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70">
@@ -5811,18 +5811,18 @@
         <v>81</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>189</v>
@@ -5830,21 +5830,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>190</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>190</v>
@@ -5866,7 +5866,7 @@
         <v>98</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>190</v>
@@ -5874,13 +5874,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77">
@@ -5888,7 +5888,7 @@
         <v>101</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>205</v>
@@ -5899,7 +5899,7 @@
         <v>101</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>205</v>
@@ -5910,7 +5910,7 @@
         <v>101</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>205</v>
@@ -5921,7 +5921,7 @@
         <v>101</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>205</v>
@@ -5932,7 +5932,7 @@
         <v>101</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>205</v>
@@ -5943,7 +5943,7 @@
         <v>101</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>205</v>
@@ -5954,7 +5954,7 @@
         <v>101</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>205</v>
@@ -5965,7 +5965,7 @@
         <v>101</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>205</v>
@@ -5976,7 +5976,7 @@
         <v>101</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>205</v>
@@ -5987,10 +5987,10 @@
         <v>101</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -5998,10 +5998,10 @@
         <v>101</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88">
@@ -6009,10 +6009,10 @@
         <v>101</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -6020,10 +6020,10 @@
         <v>101</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90">
@@ -6031,7 +6031,7 @@
         <v>101</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>205</v>
@@ -6042,32 +6042,32 @@
         <v>101</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
@@ -6075,7 +6075,7 @@
         <v>113</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>205</v>
@@ -6086,7 +6086,7 @@
         <v>113</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>205</v>
@@ -6097,7 +6097,7 @@
         <v>113</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>205</v>
@@ -6108,7 +6108,7 @@
         <v>113</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>205</v>
@@ -6119,7 +6119,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>205</v>
@@ -6130,7 +6130,7 @@
         <v>113</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>205</v>
@@ -6141,7 +6141,7 @@
         <v>113</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>205</v>
@@ -6152,7 +6152,7 @@
         <v>113</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>205</v>
@@ -6163,7 +6163,7 @@
         <v>113</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>205</v>
@@ -6174,7 +6174,7 @@
         <v>113</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>205</v>
@@ -6185,7 +6185,7 @@
         <v>113</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>205</v>
@@ -6196,7 +6196,7 @@
         <v>113</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>205</v>
@@ -6207,7 +6207,7 @@
         <v>113</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>205</v>
@@ -6218,7 +6218,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>205</v>
@@ -6229,7 +6229,7 @@
         <v>113</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>205</v>
@@ -6240,7 +6240,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>205</v>
@@ -6251,7 +6251,7 @@
         <v>113</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>205</v>
@@ -6262,7 +6262,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>205</v>
@@ -6273,7 +6273,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>205</v>
@@ -6284,7 +6284,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>205</v>
@@ -6295,7 +6295,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>205</v>
@@ -6306,7 +6306,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>205</v>
@@ -6317,7 +6317,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>205</v>
@@ -6328,10 +6328,10 @@
         <v>113</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118">
@@ -6339,10 +6339,10 @@
         <v>113</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119">
@@ -6350,10 +6350,10 @@
         <v>113</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120">
@@ -6361,10 +6361,10 @@
         <v>113</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121">
@@ -6372,10 +6372,10 @@
         <v>113</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122">
@@ -6383,21 +6383,21 @@
         <v>113</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124">
@@ -6405,9 +6405,20 @@
         <v>139</v>
       </c>
       <c r="B124" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B125" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="C124" t="s" s="0">
+      <c r="C125" t="s" s="0">
         <v>190</v>
       </c>
     </row>
@@ -6476,7 +6487,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -6490,7 +6501,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -6504,7 +6515,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -6532,7 +6543,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -6540,13 +6551,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -6554,13 +6565,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -6574,7 +6585,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -6588,7 +6599,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -6602,7 +6613,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -6616,7 +6627,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -6680,13 +6691,13 @@
         <v>81</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -6694,7 +6705,7 @@
         <v>81</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>14</v>
@@ -6708,7 +6719,7 @@
         <v>81</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>14</v>
@@ -6722,13 +6733,13 @@
         <v>81</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -6736,13 +6747,13 @@
         <v>101</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -6750,13 +6761,13 @@
         <v>101</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -6778,13 +6789,13 @@
         <v>101</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -6792,13 +6803,13 @@
         <v>101</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -6904,13 +6915,13 @@
         <v>113</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -6918,13 +6929,13 @@
         <v>113</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -6952,7 +6963,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -6980,7 +6991,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39">
